--- a/outline.xlsx
+++ b/outline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>STT</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Nhận xét, định hướng</t>
+  </si>
+  <si>
+    <t>Kết hợp các feature lại</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -622,7 +625,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -680,7 +683,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>5</v>
       </c>
@@ -793,7 +796,9 @@
       <c r="B29" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="5"/>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D29">
         <v>1</v>
       </c>
